--- a/fuint-application/application-web/src/main/resources/template/importTemplate.xlsx
+++ b/fuint-application/application-web/src/main/resources/template/importTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fushe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\fuint\fuint-application\application-web\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ACACFA-45F9-4663-B198-9C5E81DEB9F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D68C97A-CAF0-447C-A78C-7B28FB3DF561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1404" windowWidth="19176" windowHeight="10344" tabRatio="359" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="359" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -26,19 +26,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>券组ID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>券组ID2</t>
+    <t>数量2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量2</t>
+    <t>卡券ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券ID2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
